--- a/Requirement SteamTrade.xlsx
+++ b/Requirement SteamTrade.xlsx
@@ -264,7 +264,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -286,6 +286,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -364,12 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,7 +377,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -406,6 +401,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -715,7 +716,7 @@
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,197 +733,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>3</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>5</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>42811</v>
       </c>
-      <c r="H3" s="12">
-        <f>G3+F3</f>
+      <c r="H3" s="10">
+        <f>G3+F3-1</f>
+        <v>42815</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <f>H3+1</f>
         <v>42816</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="2:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="H4" s="10">
+        <f t="shared" ref="H4:H7" si="0">G4+F4-1</f>
+        <v>42816</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="G5" s="10">
+        <f t="shared" ref="G5:G7" si="1">H4+1</f>
+        <v>42817</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>42818</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
-        <f>H3+1</f>
-        <v>42817</v>
-      </c>
-      <c r="H4" s="12">
-        <f>G4+F4</f>
-        <v>42818</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" ref="G5:G7" si="0">H4+1</f>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="1"/>
         <v>42819</v>
       </c>
-      <c r="H5" s="12">
-        <f t="shared" ref="H5:H7" si="1">G5+F5</f>
-        <v>42821</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8">
-        <v>4</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="H6" s="10">
         <f t="shared" si="0"/>
         <v>42822</v>
       </c>
-      <c r="H6" s="12">
+      <c r="I6" s="7"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>42826</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="8">
-        <v>3</v>
-      </c>
-      <c r="F7" s="8">
-        <v>3</v>
-      </c>
-      <c r="G7" s="12">
+        <v>42823</v>
+      </c>
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
-        <v>42827</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="1"/>
-        <v>42830</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="13"/>
+        <v>42825</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <f>AVERAGE(E3:E7)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <f>SUM(F3:F7)</f>
         <v>15</v>
       </c>
@@ -953,13 +954,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1045,13 +1046,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1136,13 +1137,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1213,13 +1214,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1401,7 +1402,7 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
@@ -1412,7 +1413,7 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="19"/>
       <c r="E12" t="s">
         <v>17</v>
       </c>
@@ -1421,7 +1422,7 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="19"/>
       <c r="E13" t="s">
         <v>19</v>
       </c>

--- a/Requirement SteamTrade.xlsx
+++ b/Requirement SteamTrade.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>Tổng quan</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>Thiết kế cơ sở dữ liệu, Code cấu trúc tổng thể và các nghiệp vụ cơ bản</t>
+  </si>
+  <si>
+    <t>Còn giá</t>
+  </si>
+  <si>
+    <t>Liên kết lấy giá tham khảo trên analyst</t>
   </si>
 </sst>
 </file>
@@ -348,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,6 +405,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,7 +728,7 @@
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,22 +740,22 @@
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="18" customWidth="1"/>
     <col min="10" max="10" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -797,7 +809,9 @@
         <f>G3+F3-1</f>
         <v>42815</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="22">
+        <v>0.3</v>
+      </c>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" ht="105" x14ac:dyDescent="0.25">
@@ -824,7 +838,7 @@
         <f t="shared" ref="H4:H7" si="0">G4+F4-1</f>
         <v>42816</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="12" t="s">
         <v>75</v>
       </c>
@@ -853,8 +867,12 @@
         <f t="shared" si="0"/>
         <v>42818</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="11"/>
+      <c r="I5" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
@@ -880,8 +898,12 @@
         <f t="shared" si="0"/>
         <v>42822</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
@@ -907,7 +929,7 @@
         <f t="shared" si="0"/>
         <v>42825</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="11"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -954,13 +976,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1046,13 +1068,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1137,13 +1159,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1214,13 +1236,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1402,7 +1424,7 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
@@ -1413,7 +1435,7 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="E12" t="s">
         <v>17</v>
       </c>
@@ -1422,7 +1444,7 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="E13" t="s">
         <v>19</v>
       </c>
